--- a/covid/alburez_DataManagementPlan_VolkswagenStiftung.xlsx
+++ b/covid/alburez_DataManagementPlan_VolkswagenStiftung.xlsx
@@ -27,6 +27,30 @@
     <author>MPIDR_D\alburezgutierrez</author>
   </authors>
   <commentList>
+    <comment ref="B33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MPIDR_D\alburezgutierrez:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+I think this is true</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C35" authorId="0">
       <text>
         <r>
@@ -304,7 +328,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +392,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -516,6 +553,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -532,12 +575,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -812,7 +849,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -825,8 +862,8 @@
   </sheetPr>
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -837,18 +874,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="58.2" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
@@ -863,10 +900,10 @@
       <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -929,10 +966,10 @@
       <c r="A12" s="8">
         <v>2</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
@@ -981,10 +1018,10 @@
       <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
@@ -1033,10 +1070,10 @@
       <c r="A24" s="13">
         <v>4</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
@@ -1089,10 +1126,10 @@
       <c r="A30" s="8">
         <v>5</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
@@ -1114,7 +1151,7 @@
     </row>
     <row r="33" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -1135,7 +1172,7 @@
       <c r="B35" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="20" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1186,10 +1223,10 @@
       <c r="A41" s="13">
         <v>6</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="20"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
